--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187864</v>
+        <v>187865</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168291308</v>
+        <v>1168297054</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>150636</v>
+        <v>150637</v>
       </c>
       <c r="D48" t="n">
         <v>33533</v>
       </c>
       <c r="E48" t="n">
-        <v>275744616</v>
+        <v>275745293</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88358</v>
+        <v>88359</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499731945</v>
+        <v>499734008</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18884</v>
+        <v>18886</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75370883</v>
+        <v>75390235</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306420</v>
+        <v>1306429</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275565868</v>
+        <v>2275588183</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633881</v>
+        <v>633892</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3436210995</v>
+        <v>3436494215</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586054</v>
+        <v>586065</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3473671724</v>
+        <v>3473732208</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25087</v>
+        <v>25088</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92608318</v>
+        <v>92615653</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236841</v>
+        <v>236842</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190039634</v>
+        <v>1190190297</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8897,13 +8897,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>154663</v>
+        <v>154665</v>
       </c>
       <c r="D207" t="n">
         <v>27118</v>
       </c>
       <c r="E207" t="n">
-        <v>753713255</v>
+        <v>753774902</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205940</v>
+        <v>205941</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1070097039</v>
+        <v>1070112032</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10496,13 +10496,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>18837</v>
+        <v>18838</v>
       </c>
       <c r="D246" t="n">
         <v>2727</v>
       </c>
       <c r="E246" t="n">
-        <v>71619583</v>
+        <v>71629583</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345543</v>
+        <v>345544</v>
       </c>
       <c r="D10" t="n">
         <v>64165</v>
       </c>
       <c r="E10" t="n">
-        <v>1817726652</v>
+        <v>1817726769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306429</v>
+        <v>1306440</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275588183</v>
+        <v>2275626248</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633892</v>
+        <v>633904</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3436494215</v>
+        <v>3436572493</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>141666559</v>
+        <v>141671236</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586065</v>
+        <v>586093</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3473732208</v>
+        <v>3474742362</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26706</v>
+        <v>26707</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144413770</v>
+        <v>144422270</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>595497</v>
+        <v>595498</v>
       </c>
       <c r="D196" t="n">
         <v>127119</v>
       </c>
       <c r="E196" t="n">
-        <v>984000022</v>
+        <v>984000729</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230261</v>
+        <v>230265</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408757751</v>
+        <v>408775539</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135502</v>
+        <v>135503</v>
       </c>
       <c r="D221" t="n">
         <v>27176</v>
       </c>
       <c r="E221" t="n">
-        <v>681921204</v>
+        <v>681946745</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187865</v>
+        <v>187867</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168297054</v>
+        <v>1168405040</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31597</v>
+        <v>31598</v>
       </c>
       <c r="D57" t="n">
         <v>6018</v>
       </c>
       <c r="E57" t="n">
-        <v>162625330</v>
+        <v>162626444</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D70" t="n">
         <v>265</v>
       </c>
       <c r="E70" t="n">
-        <v>3974419</v>
+        <v>3979299</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306440</v>
+        <v>1306453</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275626248</v>
+        <v>2275669602</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633904</v>
+        <v>633912</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3436572493</v>
+        <v>3436652220</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586093</v>
+        <v>586101</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3474742362</v>
+        <v>3474796202</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26707</v>
+        <v>26708</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144422270</v>
+        <v>144428758</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12412</v>
+        <v>12415</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40642757</v>
+        <v>40796744</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187867</v>
+        <v>187870</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168405040</v>
+        <v>1168643288</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18886</v>
+        <v>18887</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75390235</v>
+        <v>75398735</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81810</v>
+        <v>81811</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436757089</v>
+        <v>436758478</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306453</v>
+        <v>1306458</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275669602</v>
+        <v>2275688370</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9162</v>
+        <v>9163</v>
       </c>
       <c r="D127" t="n">
         <v>1297</v>
       </c>
       <c r="E127" t="n">
-        <v>110643825</v>
+        <v>110743559</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633912</v>
+        <v>633923</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3436652220</v>
+        <v>3437003883</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586101</v>
+        <v>586118</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3474796202</v>
+        <v>3475155346</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7027</v>
+        <v>7028</v>
       </c>
       <c r="D134" t="n">
         <v>1675</v>
       </c>
       <c r="E134" t="n">
-        <v>16897539</v>
+        <v>16907539</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26708</v>
+        <v>26709</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144428758</v>
+        <v>144431319</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7011,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D161" t="n">
         <v>96</v>
       </c>
       <c r="E161" t="n">
-        <v>1651122</v>
+        <v>1818521</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95828</v>
+        <v>95830</v>
       </c>
       <c r="D171" t="n">
         <v>18309</v>
       </c>
       <c r="E171" t="n">
-        <v>490704985</v>
+        <v>490707985</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>40452</v>
+        <v>40453</v>
       </c>
       <c r="D174" t="n">
         <v>7185</v>
       </c>
       <c r="E174" t="n">
-        <v>239945952</v>
+        <v>240012967</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236842</v>
+        <v>236844</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190190297</v>
+        <v>1190209648</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230265</v>
+        <v>230266</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408775539</v>
+        <v>408781748</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D11" t="n">
         <v>254</v>
       </c>
       <c r="E11" t="n">
-        <v>46670891</v>
+        <v>46826598</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187870</v>
+        <v>187871</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168643288</v>
+        <v>1168646488</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211207</v>
+        <v>211209</v>
       </c>
       <c r="D36" t="n">
         <v>48185</v>
       </c>
       <c r="E36" t="n">
-        <v>404251793</v>
+        <v>404259591</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75192</v>
+        <v>75193</v>
       </c>
       <c r="D54" t="n">
         <v>14914</v>
       </c>
       <c r="E54" t="n">
-        <v>361060347</v>
+        <v>361072600</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18887</v>
+        <v>18888</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75398735</v>
+        <v>75401391</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306458</v>
+        <v>1306474</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275688370</v>
+        <v>2275750876</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9163</v>
+        <v>9165</v>
       </c>
       <c r="D127" t="n">
         <v>1297</v>
       </c>
       <c r="E127" t="n">
-        <v>110743559</v>
+        <v>110799628</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633923</v>
+        <v>633944</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3437003883</v>
+        <v>3437195477</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586118</v>
+        <v>586127</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3475155346</v>
+        <v>3475312863</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26709</v>
+        <v>26710</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144431319</v>
+        <v>144432396</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12415</v>
+        <v>12417</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40796744</v>
+        <v>40823580</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>265655</v>
+        <v>265656</v>
       </c>
       <c r="D204" t="n">
         <v>49763</v>
       </c>
       <c r="E204" t="n">
-        <v>1271507258</v>
+        <v>1271520756</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9594,13 +9594,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>39681</v>
+        <v>39687</v>
       </c>
       <c r="D224" t="n">
         <v>7247</v>
       </c>
       <c r="E224" t="n">
-        <v>260932034</v>
+        <v>260941034</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205941</v>
+        <v>205944</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1070112032</v>
+        <v>1070126718</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187871</v>
+        <v>187873</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168646488</v>
+        <v>1168846558</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27514</v>
+        <v>27516</v>
       </c>
       <c r="D19" t="n">
         <v>4210</v>
       </c>
       <c r="E19" t="n">
-        <v>132331474</v>
+        <v>132401079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178450</v>
+        <v>178452</v>
       </c>
       <c r="D78" t="n">
         <v>34686</v>
       </c>
       <c r="E78" t="n">
-        <v>892715677</v>
+        <v>892718677</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81811</v>
+        <v>81812</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436758478</v>
+        <v>436766776</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306474</v>
+        <v>1306486</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275750876</v>
+        <v>2275793617</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633944</v>
+        <v>633954</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3437195477</v>
+        <v>3437524735</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586127</v>
+        <v>586138</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3475312863</v>
+        <v>3475869321</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>12133</v>
+        <v>12134</v>
       </c>
       <c r="D210" t="n">
         <v>3233</v>
       </c>
       <c r="E210" t="n">
-        <v>42411576</v>
+        <v>42411736</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135503</v>
+        <v>135504</v>
       </c>
       <c r="D221" t="n">
         <v>27176</v>
       </c>
       <c r="E221" t="n">
-        <v>681946745</v>
+        <v>681964339</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766341</v>
+        <v>766349</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429248811</v>
+        <v>1429261547</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27516</v>
+        <v>27518</v>
       </c>
       <c r="D19" t="n">
         <v>4210</v>
       </c>
       <c r="E19" t="n">
-        <v>132401079</v>
+        <v>132474505</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D46" t="n">
         <v>833</v>
       </c>
       <c r="E46" t="n">
-        <v>8330439</v>
+        <v>8338939</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331326</v>
+        <v>331327</v>
       </c>
       <c r="D72" t="n">
         <v>71642</v>
       </c>
       <c r="E72" t="n">
-        <v>635437762</v>
+        <v>635439213</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306486</v>
+        <v>1306498</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275793617</v>
+        <v>2275823980</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633954</v>
+        <v>633959</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3437524735</v>
+        <v>3437611560</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586138</v>
+        <v>586154</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3475869321</v>
+        <v>3476067310</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7028</v>
+        <v>7029</v>
       </c>
       <c r="D134" t="n">
         <v>1675</v>
       </c>
       <c r="E134" t="n">
-        <v>16907539</v>
+        <v>16908507</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515892</v>
+        <v>515893</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891219559</v>
+        <v>891221059</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236844</v>
+        <v>236845</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190209648</v>
+        <v>1190227100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283329</v>
+        <v>283330</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438593887</v>
+        <v>1438595387</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766349</v>
+        <v>766351</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429261547</v>
+        <v>1429263437</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187873</v>
+        <v>187874</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168846558</v>
+        <v>1168847701</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27518</v>
+        <v>27520</v>
       </c>
       <c r="D19" t="n">
         <v>4210</v>
       </c>
       <c r="E19" t="n">
-        <v>132474505</v>
+        <v>132568759</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>175243</v>
+        <v>175244</v>
       </c>
       <c r="D21" t="n">
         <v>38057</v>
       </c>
       <c r="E21" t="n">
-        <v>316823968</v>
+        <v>316831538</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>126946</v>
+        <v>126947</v>
       </c>
       <c r="D41" t="n">
         <v>24257</v>
       </c>
       <c r="E41" t="n">
-        <v>662711335</v>
+        <v>662714913</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31598</v>
+        <v>31599</v>
       </c>
       <c r="D57" t="n">
         <v>6018</v>
       </c>
       <c r="E57" t="n">
-        <v>162626444</v>
+        <v>162636444</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88359</v>
+        <v>88360</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499734008</v>
+        <v>499741973</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71283</v>
+        <v>71284</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110329263</v>
+        <v>110329804</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306498</v>
+        <v>1306505</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275823980</v>
+        <v>2275852587</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633959</v>
+        <v>633969</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3437611560</v>
+        <v>3437685258</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586154</v>
+        <v>586157</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3476067310</v>
+        <v>3476085690</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39935</v>
+        <v>39937</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60390275</v>
+        <v>60395303</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12417</v>
+        <v>12418</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40823580</v>
+        <v>40886248</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95830</v>
+        <v>95834</v>
       </c>
       <c r="D171" t="n">
         <v>18309</v>
       </c>
       <c r="E171" t="n">
-        <v>490707985</v>
+        <v>490727046</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515893</v>
+        <v>515894</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891221059</v>
+        <v>891232265</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236845</v>
+        <v>236848</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190227100</v>
+        <v>1190253497</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283330</v>
+        <v>283332</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438595387</v>
+        <v>1438703447</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205944</v>
+        <v>205945</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1070126718</v>
+        <v>1070200493</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178452</v>
+        <v>178453</v>
       </c>
       <c r="D78" t="n">
         <v>34686</v>
       </c>
       <c r="E78" t="n">
-        <v>892718677</v>
+        <v>892720177</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>319353</v>
+        <v>319354</v>
       </c>
       <c r="D104" t="n">
         <v>67905</v>
       </c>
       <c r="E104" t="n">
-        <v>561276558</v>
+        <v>561277551</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145233</v>
+        <v>145236</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716384256</v>
+        <v>716402562</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306505</v>
+        <v>1306506</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275852587</v>
+        <v>2275854987</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633969</v>
+        <v>634000</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3437685258</v>
+        <v>3438055782</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586157</v>
+        <v>586163</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3476085690</v>
+        <v>3476116365</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25088</v>
+        <v>25089</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92615653</v>
+        <v>92639151</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>612547</v>
+        <v>612548</v>
       </c>
       <c r="D229" t="n">
         <v>121244</v>
       </c>
       <c r="E229" t="n">
-        <v>1040766648</v>
+        <v>1040769805</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187874</v>
+        <v>187875</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1168847701</v>
+        <v>1168849271</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11265</v>
+        <v>11266</v>
       </c>
       <c r="D86" t="n">
         <v>1744</v>
       </c>
       <c r="E86" t="n">
-        <v>51335444</v>
+        <v>51336944</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306506</v>
+        <v>1306510</v>
       </c>
       <c r="D121" t="n">
         <v>220388</v>
       </c>
       <c r="E121" t="n">
-        <v>2275854987</v>
+        <v>2275867992</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>634000</v>
+        <v>634054</v>
       </c>
       <c r="D129" t="n">
         <v>105011</v>
       </c>
       <c r="E129" t="n">
-        <v>3438055782</v>
+        <v>3438690466</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>586163</v>
+        <v>586175</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3476116365</v>
+        <v>3476460399</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18468</v>
+        <v>18471</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>74223474</v>
+        <v>74272866</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236848</v>
+        <v>236849</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1190253497</v>
+        <v>1190257982</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>12134</v>
+        <v>12135</v>
       </c>
       <c r="D210" t="n">
         <v>3233</v>
       </c>
       <c r="E210" t="n">
-        <v>42411736</v>
+        <v>42413138</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205945</v>
+        <v>205952</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1070200493</v>
+        <v>1070285771</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
